--- a/biology/Médecine/Journée_mondiale_de_la_santé/Journée_mondiale_de_la_santé.xlsx
+++ b/biology/Médecine/Journée_mondiale_de_la_santé/Journée_mondiale_de_la_santé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_mondiale_de_la_sant%C3%A9</t>
+          <t>Journée_mondiale_de_la_santé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Journée mondiale de la santé est une journée internationale consacrée à la promotion de la santé.
-Elle est célébrée chaque année le 7 avril pour marquer l’anniversaire de la création de l’Organisation mondiale de la santé (OMS), et offre une occasion de mobiliser l’action autour d’un thème de santé publique qui concerne le monde entier[1]. 
+Elle est célébrée chaque année le 7 avril pour marquer l’anniversaire de la création de l’Organisation mondiale de la santé (OMS), et offre une occasion de mobiliser l’action autour d’un thème de santé publique qui concerne le monde entier. 
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_mondiale_de_la_sant%C3%A9</t>
+          <t>Journée_mondiale_de_la_santé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Thèmes annuels</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>2024 : Ma santé, mon droit ;
 2023 : La santé pour tous ;
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_mondiale_de_la_sant%C3%A9</t>
+          <t>Journée_mondiale_de_la_santé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,9 +569,11 @@
           <t>Campagnes similaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Elle fait partie des dix campagnes officielles de l'Organisation mondiale de la santé (OMS) en faveur de la santé publique mondiale[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Elle fait partie des dix campagnes officielles de l'Organisation mondiale de la santé (OMS) en faveur de la santé publique mondiale :
 Journée mondiale de lutte contre la tuberculose (le 24 mars) :
 Journée mondiale de la santé (le 7 avril) ;
 Journée mondiale du paludisme (le 25 avril) ;
